--- a/User_Data/ABS/Full_Sheets/5204049_income_dwelling_rent.xlsx
+++ b/User_Data/ABS/Full_Sheets/5204049_income_dwelling_rent.xlsx
@@ -17,50 +17,50 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2422340L">Data1!$B$1:$B$10,Data1!$B$41:$B$74</definedName>
-    <definedName name="A2422340L_Data">Data1!$B$41:$B$74</definedName>
-    <definedName name="A2422340L_Latest">Data1!$B$74</definedName>
-    <definedName name="A2422341R">Data1!$C$1:$C$10,Data1!$C$41:$C$74</definedName>
-    <definedName name="A2422341R_Data">Data1!$C$41:$C$74</definedName>
-    <definedName name="A2422341R_Latest">Data1!$C$74</definedName>
-    <definedName name="A2422342T">Data1!$D$1:$D$10,Data1!$D$41:$D$74</definedName>
-    <definedName name="A2422342T_Data">Data1!$D$41:$D$74</definedName>
-    <definedName name="A2422342T_Latest">Data1!$D$74</definedName>
-    <definedName name="A2422343V">Data1!$E$1:$E$10,Data1!$E$41:$E$74</definedName>
-    <definedName name="A2422343V_Data">Data1!$E$41:$E$74</definedName>
-    <definedName name="A2422343V_Latest">Data1!$E$74</definedName>
-    <definedName name="A2422344W">Data1!$F$1:$F$10,Data1!$F$41:$F$74</definedName>
-    <definedName name="A2422344W_Data">Data1!$F$41:$F$74</definedName>
-    <definedName name="A2422344W_Latest">Data1!$F$74</definedName>
-    <definedName name="A2422345X">Data1!$G$1:$G$10,Data1!$G$41:$G$74</definedName>
-    <definedName name="A2422345X_Data">Data1!$G$41:$G$74</definedName>
-    <definedName name="A2422345X_Latest">Data1!$G$74</definedName>
-    <definedName name="A2422346A">Data1!$H$1:$H$10,Data1!$H$41:$H$74</definedName>
-    <definedName name="A2422346A_Data">Data1!$H$41:$H$74</definedName>
-    <definedName name="A2422346A_Latest">Data1!$H$74</definedName>
-    <definedName name="A2422347C">Data1!$I$1:$I$10,Data1!$I$41:$I$74</definedName>
-    <definedName name="A2422347C_Data">Data1!$I$41:$I$74</definedName>
-    <definedName name="A2422347C_Latest">Data1!$I$74</definedName>
-    <definedName name="A2422348F">Data1!$J$1:$J$10,Data1!$J$41:$J$74</definedName>
-    <definedName name="A2422348F_Data">Data1!$J$41:$J$74</definedName>
-    <definedName name="A2422348F_Latest">Data1!$J$74</definedName>
-    <definedName name="A2422351V">Data1!$M$1:$M$10,Data1!$M$11:$M$74</definedName>
-    <definedName name="A2422351V_Data">Data1!$M$11:$M$74</definedName>
-    <definedName name="A2422351V_Latest">Data1!$M$74</definedName>
-    <definedName name="A2422352W">Data1!$N$1:$N$10,Data1!$N$11:$N$74</definedName>
-    <definedName name="A2422352W_Data">Data1!$N$11:$N$74</definedName>
-    <definedName name="A2422352W_Latest">Data1!$N$74</definedName>
-    <definedName name="A2519106C">Data1!$L$1:$L$10,Data1!$L$41:$L$74</definedName>
-    <definedName name="A2519106C_Data">Data1!$L$41:$L$74</definedName>
-    <definedName name="A2519106C_Latest">Data1!$L$74</definedName>
-    <definedName name="A2519107F">Data1!$K$1:$K$10,Data1!$K$41:$K$74</definedName>
-    <definedName name="A2519107F_Data">Data1!$K$41:$K$74</definedName>
-    <definedName name="A2519107F_Latest">Data1!$K$74</definedName>
-    <definedName name="A2519108J">Data1!$O$1:$O$10,Data1!$O$41:$O$74</definedName>
-    <definedName name="A2519108J_Data">Data1!$O$41:$O$74</definedName>
-    <definedName name="A2519108J_Latest">Data1!$O$74</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$74</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$74</definedName>
+    <definedName name="A2422340L">Data1!$B$1:$B$10,Data1!$B$41:$B$75</definedName>
+    <definedName name="A2422340L_Data">Data1!$B$41:$B$75</definedName>
+    <definedName name="A2422340L_Latest">Data1!$B$75</definedName>
+    <definedName name="A2422341R">Data1!$C$1:$C$10,Data1!$C$41:$C$75</definedName>
+    <definedName name="A2422341R_Data">Data1!$C$41:$C$75</definedName>
+    <definedName name="A2422341R_Latest">Data1!$C$75</definedName>
+    <definedName name="A2422342T">Data1!$D$1:$D$10,Data1!$D$41:$D$75</definedName>
+    <definedName name="A2422342T_Data">Data1!$D$41:$D$75</definedName>
+    <definedName name="A2422342T_Latest">Data1!$D$75</definedName>
+    <definedName name="A2422343V">Data1!$E$1:$E$10,Data1!$E$41:$E$75</definedName>
+    <definedName name="A2422343V_Data">Data1!$E$41:$E$75</definedName>
+    <definedName name="A2422343V_Latest">Data1!$E$75</definedName>
+    <definedName name="A2422344W">Data1!$F$1:$F$10,Data1!$F$41:$F$75</definedName>
+    <definedName name="A2422344W_Data">Data1!$F$41:$F$75</definedName>
+    <definedName name="A2422344W_Latest">Data1!$F$75</definedName>
+    <definedName name="A2422345X">Data1!$G$1:$G$10,Data1!$G$41:$G$75</definedName>
+    <definedName name="A2422345X_Data">Data1!$G$41:$G$75</definedName>
+    <definedName name="A2422345X_Latest">Data1!$G$75</definedName>
+    <definedName name="A2422346A">Data1!$H$1:$H$10,Data1!$H$41:$H$75</definedName>
+    <definedName name="A2422346A_Data">Data1!$H$41:$H$75</definedName>
+    <definedName name="A2422346A_Latest">Data1!$H$75</definedName>
+    <definedName name="A2422347C">Data1!$I$1:$I$10,Data1!$I$41:$I$75</definedName>
+    <definedName name="A2422347C_Data">Data1!$I$41:$I$75</definedName>
+    <definedName name="A2422347C_Latest">Data1!$I$75</definedName>
+    <definedName name="A2422348F">Data1!$J$1:$J$10,Data1!$J$41:$J$75</definedName>
+    <definedName name="A2422348F_Data">Data1!$J$41:$J$75</definedName>
+    <definedName name="A2422348F_Latest">Data1!$J$75</definedName>
+    <definedName name="A2422351V">Data1!$M$1:$M$10,Data1!$M$11:$M$75</definedName>
+    <definedName name="A2422351V_Data">Data1!$M$11:$M$75</definedName>
+    <definedName name="A2422351V_Latest">Data1!$M$75</definedName>
+    <definedName name="A2422352W">Data1!$N$1:$N$10,Data1!$N$11:$N$75</definedName>
+    <definedName name="A2422352W_Data">Data1!$N$11:$N$75</definedName>
+    <definedName name="A2422352W_Latest">Data1!$N$75</definedName>
+    <definedName name="A2519106C">Data1!$L$1:$L$10,Data1!$L$41:$L$75</definedName>
+    <definedName name="A2519106C_Data">Data1!$L$41:$L$75</definedName>
+    <definedName name="A2519106C_Latest">Data1!$L$75</definedName>
+    <definedName name="A2519107F">Data1!$K$1:$K$10,Data1!$K$41:$K$75</definedName>
+    <definedName name="A2519107F_Data">Data1!$K$41:$K$75</definedName>
+    <definedName name="A2519107F_Latest">Data1!$K$75</definedName>
+    <definedName name="A2519108J">Data1!$O$1:$O$10,Data1!$O$41:$O$75</definedName>
+    <definedName name="A2519108J_Data">Data1!$O$41:$O$75</definedName>
+    <definedName name="A2519108J_Latest">Data1!$O$75</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$75</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$75</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -275,7 +275,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2023</t>
+    <t>© Commonwealth of Australia  2024</t>
   </si>
 </sst>
 </file>
@@ -962,10 +962,10 @@
         <v>33025</v>
       </c>
       <c r="G12" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H12" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>23</v>
@@ -994,10 +994,10 @@
         <v>33025</v>
       </c>
       <c r="G13" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H13" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>23</v>
@@ -1026,10 +1026,10 @@
         <v>33025</v>
       </c>
       <c r="G14" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H14" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>23</v>
@@ -1058,10 +1058,10 @@
         <v>33025</v>
       </c>
       <c r="G15" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H15" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>23</v>
@@ -1090,10 +1090,10 @@
         <v>33025</v>
       </c>
       <c r="G16" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H16" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>23</v>
@@ -1122,10 +1122,10 @@
         <v>33025</v>
       </c>
       <c r="G17" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H17" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>23</v>
@@ -1154,10 +1154,10 @@
         <v>33025</v>
       </c>
       <c r="G18" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H18" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>23</v>
@@ -1186,10 +1186,10 @@
         <v>33025</v>
       </c>
       <c r="G19" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H19" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>23</v>
@@ -1218,10 +1218,10 @@
         <v>33025</v>
       </c>
       <c r="G20" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H20" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>23</v>
@@ -1250,10 +1250,10 @@
         <v>33025</v>
       </c>
       <c r="G21" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H21" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>23</v>
@@ -1282,10 +1282,10 @@
         <v>33025</v>
       </c>
       <c r="G22" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H22" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>23</v>
@@ -1314,10 +1314,10 @@
         <v>22068</v>
       </c>
       <c r="G23" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H23" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>23</v>
@@ -1346,10 +1346,10 @@
         <v>22068</v>
       </c>
       <c r="G24" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H24" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>23</v>
@@ -1378,10 +1378,10 @@
         <v>33025</v>
       </c>
       <c r="G25" s="9">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H25" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>23</v>
@@ -1430,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -1775,46 +1775,46 @@
         <v>20</v>
       </c>
       <c r="B8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="C8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="D8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="E8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="F8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="G8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="H8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="I8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="J8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="K8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="L8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="M8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="N8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="O8" s="6">
-        <v>45078</v>
+        <v>45444</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1822,46 +1822,46 @@
         <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N9" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2314,16 +2314,16 @@
         <v>2905</v>
       </c>
       <c r="I42" s="8">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J42" s="8">
-        <v>30659</v>
+        <v>30660</v>
       </c>
       <c r="K42" s="8">
         <v>887</v>
       </c>
       <c r="L42" s="8">
-        <v>29772</v>
+        <v>29773</v>
       </c>
       <c r="M42" s="8">
         <v>11963</v>
@@ -2332,7 +2332,7 @@
         <v>10991</v>
       </c>
       <c r="O42" s="8">
-        <v>6819</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2355,7 +2355,7 @@
         <v>4016</v>
       </c>
       <c r="G43" s="8">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="H43" s="8">
         <v>2935</v>
@@ -2364,13 +2364,13 @@
         <v>1119</v>
       </c>
       <c r="J43" s="8">
-        <v>32436</v>
+        <v>32435</v>
       </c>
       <c r="K43" s="8">
         <v>921</v>
       </c>
       <c r="L43" s="8">
-        <v>31515</v>
+        <v>31514</v>
       </c>
       <c r="M43" s="8">
         <v>12298</v>
@@ -2379,7 +2379,7 @@
         <v>9182</v>
       </c>
       <c r="O43" s="8">
-        <v>10035</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -2408,16 +2408,16 @@
         <v>3145</v>
       </c>
       <c r="I44" s="8">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="J44" s="8">
-        <v>33068</v>
+        <v>33067</v>
       </c>
       <c r="K44" s="8">
         <v>871</v>
       </c>
       <c r="L44" s="8">
-        <v>32197</v>
+        <v>32196</v>
       </c>
       <c r="M44" s="8">
         <v>13028</v>
@@ -2426,7 +2426,7 @@
         <v>8060</v>
       </c>
       <c r="O44" s="8">
-        <v>11109</v>
+        <v>11108</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2449,22 +2449,22 @@
         <v>4356</v>
       </c>
       <c r="G45" s="8">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="H45" s="8">
         <v>3425</v>
       </c>
       <c r="I45" s="8">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="J45" s="8">
-        <v>33766</v>
+        <v>33764</v>
       </c>
       <c r="K45" s="8">
         <v>964</v>
       </c>
       <c r="L45" s="8">
-        <v>32802</v>
+        <v>32800</v>
       </c>
       <c r="M45" s="8">
         <v>13977</v>
@@ -2473,7 +2473,7 @@
         <v>8334</v>
       </c>
       <c r="O45" s="8">
-        <v>10492</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -2496,7 +2496,7 @@
         <v>4538</v>
       </c>
       <c r="G46" s="8">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="H46" s="8">
         <v>4311</v>
@@ -2505,13 +2505,13 @@
         <v>1444</v>
       </c>
       <c r="J46" s="8">
-        <v>34913</v>
+        <v>34914</v>
       </c>
       <c r="K46" s="8">
         <v>1007</v>
       </c>
       <c r="L46" s="8">
-        <v>33906</v>
+        <v>33907</v>
       </c>
       <c r="M46" s="8">
         <v>14991</v>
@@ -2520,7 +2520,7 @@
         <v>11478</v>
       </c>
       <c r="O46" s="8">
-        <v>7436</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -2590,7 +2590,7 @@
         <v>4826</v>
       </c>
       <c r="G48" s="8">
-        <v>5243</v>
+        <v>5244</v>
       </c>
       <c r="H48" s="8">
         <v>3742</v>
@@ -2599,13 +2599,13 @@
         <v>1600</v>
       </c>
       <c r="J48" s="8">
-        <v>39760</v>
+        <v>39759</v>
       </c>
       <c r="K48" s="8">
         <v>1046</v>
       </c>
       <c r="L48" s="8">
-        <v>38714</v>
+        <v>38713</v>
       </c>
       <c r="M48" s="8">
         <v>16974</v>
@@ -2614,7 +2614,7 @@
         <v>12679</v>
       </c>
       <c r="O48" s="8">
-        <v>9061</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -2684,7 +2684,7 @@
         <v>5218</v>
       </c>
       <c r="G50" s="8">
-        <v>5964</v>
+        <v>5965</v>
       </c>
       <c r="H50" s="8">
         <v>4260</v>
@@ -2693,13 +2693,13 @@
         <v>2002</v>
       </c>
       <c r="J50" s="8">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="K50" s="8">
         <v>1058</v>
       </c>
       <c r="L50" s="8">
-        <v>43563</v>
+        <v>43562</v>
       </c>
       <c r="M50" s="8">
         <v>19377</v>
@@ -2708,7 +2708,7 @@
         <v>12021</v>
       </c>
       <c r="O50" s="8">
-        <v>12164</v>
+        <v>12163</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -2731,7 +2731,7 @@
         <v>5351</v>
       </c>
       <c r="G51" s="8">
-        <v>6255</v>
+        <v>6256</v>
       </c>
       <c r="H51" s="8">
         <v>4630</v>
@@ -2740,13 +2740,13 @@
         <v>2230</v>
       </c>
       <c r="J51" s="8">
-        <v>47564</v>
+        <v>47563</v>
       </c>
       <c r="K51" s="8">
         <v>1074</v>
       </c>
       <c r="L51" s="8">
-        <v>46490</v>
+        <v>46489</v>
       </c>
       <c r="M51" s="8">
         <v>21463</v>
@@ -2755,7 +2755,7 @@
         <v>15504</v>
       </c>
       <c r="O51" s="8">
-        <v>9523</v>
+        <v>9522</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -2778,7 +2778,7 @@
         <v>5574</v>
       </c>
       <c r="G52" s="8">
-        <v>7357</v>
+        <v>7356</v>
       </c>
       <c r="H52" s="8">
         <v>6040</v>
@@ -2787,13 +2787,13 @@
         <v>2222</v>
       </c>
       <c r="J52" s="8">
-        <v>49173</v>
+        <v>49174</v>
       </c>
       <c r="K52" s="8">
         <v>973</v>
       </c>
       <c r="L52" s="8">
-        <v>48200</v>
+        <v>48201</v>
       </c>
       <c r="M52" s="8">
         <v>24892</v>
@@ -2802,7 +2802,7 @@
         <v>18582</v>
       </c>
       <c r="O52" s="8">
-        <v>4725</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -2943,7 +2943,7 @@
         <v>27742</v>
       </c>
       <c r="O55" s="8">
-        <v>-5146</v>
+        <v>-5147</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -3060,7 +3060,7 @@
         <v>8587</v>
       </c>
       <c r="G58" s="8">
-        <v>10232</v>
+        <v>10231</v>
       </c>
       <c r="H58" s="8">
         <v>12115</v>
@@ -3069,13 +3069,13 @@
         <v>2879</v>
       </c>
       <c r="J58" s="8">
-        <v>75081</v>
+        <v>75082</v>
       </c>
       <c r="K58" s="8">
         <v>1473</v>
       </c>
       <c r="L58" s="8">
-        <v>73608</v>
+        <v>73609</v>
       </c>
       <c r="M58" s="8">
         <v>46111</v>
@@ -3084,7 +3084,7 @@
         <v>47784</v>
       </c>
       <c r="O58" s="8">
-        <v>-20287</v>
+        <v>-20286</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -3389,22 +3389,22 @@
         <v>15579</v>
       </c>
       <c r="G65" s="8">
-        <v>13660</v>
+        <v>13661</v>
       </c>
       <c r="H65" s="8">
         <v>17667</v>
       </c>
       <c r="I65" s="8">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="J65" s="8">
-        <v>125538</v>
+        <v>125536</v>
       </c>
       <c r="K65" s="8">
         <v>2057</v>
       </c>
       <c r="L65" s="8">
-        <v>123481</v>
+        <v>123479</v>
       </c>
       <c r="M65" s="8">
         <v>67917</v>
@@ -3413,7 +3413,7 @@
         <v>58016</v>
       </c>
       <c r="O65" s="8">
-        <v>-2452</v>
+        <v>-2454</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -3712,37 +3712,37 @@
         <v>229901</v>
       </c>
       <c r="E72" s="8">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F72" s="8">
-        <v>20638</v>
+        <v>20618</v>
       </c>
       <c r="G72" s="8">
-        <v>18843</v>
+        <v>18840</v>
       </c>
       <c r="H72" s="8">
-        <v>18321</v>
+        <v>18318</v>
       </c>
       <c r="I72" s="8">
-        <v>4498</v>
+        <v>4496</v>
       </c>
       <c r="J72" s="8">
-        <v>168426</v>
+        <v>168447</v>
       </c>
       <c r="K72" s="8">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="L72" s="8">
-        <v>166472</v>
+        <v>166493</v>
       </c>
       <c r="M72" s="8">
-        <v>96296</v>
+        <v>96289</v>
       </c>
       <c r="N72" s="8">
-        <v>45770</v>
+        <v>45809</v>
       </c>
       <c r="O72" s="8">
-        <v>24406</v>
+        <v>24395</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -3759,37 +3759,37 @@
         <v>239739</v>
       </c>
       <c r="E73" s="8">
-        <v>739</v>
+        <v>796</v>
       </c>
       <c r="F73" s="8">
-        <v>21490</v>
+        <v>21523</v>
       </c>
       <c r="G73" s="8">
-        <v>20254</v>
+        <v>20294</v>
       </c>
       <c r="H73" s="8">
-        <v>18364</v>
+        <v>18351</v>
       </c>
       <c r="I73" s="8">
-        <v>4858</v>
+        <v>4862</v>
       </c>
       <c r="J73" s="8">
-        <v>175512</v>
+        <v>175505</v>
       </c>
       <c r="K73" s="8">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="L73" s="8">
-        <v>173201</v>
+        <v>173195</v>
       </c>
       <c r="M73" s="8">
-        <v>111879</v>
+        <v>111566</v>
       </c>
       <c r="N73" s="8">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="O73" s="8">
-        <v>16063</v>
+        <v>16369</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -3797,46 +3797,93 @@
         <v>45078</v>
       </c>
       <c r="B74" s="8">
-        <v>195304</v>
+        <v>194915</v>
       </c>
       <c r="C74" s="8">
-        <v>61517</v>
+        <v>63564</v>
       </c>
       <c r="D74" s="8">
-        <v>256821</v>
+        <v>258479</v>
       </c>
       <c r="E74" s="8">
-        <v>979</v>
+        <v>603</v>
       </c>
       <c r="F74" s="8">
-        <v>22443</v>
+        <v>23175</v>
       </c>
       <c r="G74" s="8">
-        <v>20623</v>
+        <v>21859</v>
       </c>
       <c r="H74" s="8">
-        <v>20589</v>
+        <v>20970</v>
       </c>
       <c r="I74" s="8">
-        <v>4920</v>
+        <v>5193</v>
       </c>
       <c r="J74" s="8">
-        <v>189225</v>
+        <v>187885</v>
       </c>
       <c r="K74" s="8">
-        <v>1927</v>
+        <v>2739</v>
       </c>
       <c r="L74" s="8">
-        <v>187298</v>
+        <v>185145</v>
       </c>
       <c r="M74" s="8">
-        <v>126295</v>
+        <v>124716</v>
       </c>
       <c r="N74" s="8">
-        <v>91252</v>
+        <v>84904</v>
       </c>
       <c r="O74" s="8">
-        <v>-30249</v>
+        <v>-24475</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
+        <v>45444</v>
+      </c>
+      <c r="B75" s="8">
+        <v>215571</v>
+      </c>
+      <c r="C75" s="8">
+        <v>70932</v>
+      </c>
+      <c r="D75" s="8">
+        <v>286503</v>
+      </c>
+      <c r="E75" s="8">
+        <v>736</v>
+      </c>
+      <c r="F75" s="8">
+        <v>25049</v>
+      </c>
+      <c r="G75" s="8">
+        <v>22140</v>
+      </c>
+      <c r="H75" s="8">
+        <v>22401</v>
+      </c>
+      <c r="I75" s="8">
+        <v>5348</v>
+      </c>
+      <c r="J75" s="8">
+        <v>212301</v>
+      </c>
+      <c r="K75" s="8">
+        <v>2964</v>
+      </c>
+      <c r="L75" s="8">
+        <v>209337</v>
+      </c>
+      <c r="M75" s="8">
+        <v>132534</v>
+      </c>
+      <c r="N75" s="8">
+        <v>115807</v>
+      </c>
+      <c r="O75" s="8">
+        <v>-39004</v>
       </c>
     </row>
   </sheetData>
